--- a/frontend/public/excel_folder/T01.xlsx
+++ b/frontend/public/excel_folder/T01.xlsx
@@ -1197,6 +1197,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1252,12 +1258,6 @@
     <xf numFmtId="180" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1569,7 +1569,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1617,10 +1617,10 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="89"/>
+      <c r="A2" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="91"/>
       <c r="C2" s="20" t="s">
         <v>23</v>
       </c>
@@ -1629,23 +1629,23 @@
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="99">
-        <v>1</v>
-      </c>
-      <c r="J2" s="99"/>
+      <c r="I2" s="101">
+        <v>1</v>
+      </c>
+      <c r="J2" s="101"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
-      <c r="O2" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="92" t="s">
+      <c r="O2" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="94"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="96"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
       <c r="V2" s="5" t="s">
@@ -1657,10 +1657,10 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="27.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="96"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="22" t="s">
         <v>5</v>
       </c>
@@ -1677,10 +1677,10 @@
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
-      <c r="Q3" s="97" t="s">
+      <c r="Q3" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="98"/>
+      <c r="R3" s="100"/>
       <c r="S3" s="37">
         <f>SUMPRODUCT(B6:B23,S6:S23)</f>
         <v>1</v>
@@ -1708,34 +1708,34 @@
         <v>11</v>
       </c>
       <c r="D4" s="38"/>
-      <c r="E4" s="86">
+      <c r="E4" s="88">
         <v>44501</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="86">
+      <c r="F4" s="89"/>
+      <c r="G4" s="88">
         <v>44502</v>
       </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="86">
+      <c r="H4" s="89"/>
+      <c r="I4" s="88">
         <v>44503</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="86">
+      <c r="J4" s="89"/>
+      <c r="K4" s="88">
         <v>44504</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="86">
+      <c r="L4" s="89"/>
+      <c r="M4" s="88">
         <v>44505</v>
       </c>
-      <c r="N4" s="87"/>
-      <c r="O4" s="86">
+      <c r="N4" s="89"/>
+      <c r="O4" s="88">
         <v>44506</v>
       </c>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="86">
+      <c r="P4" s="89"/>
+      <c r="Q4" s="88">
         <v>44507</v>
       </c>
-      <c r="R4" s="87"/>
+      <c r="R4" s="89"/>
       <c r="S4" s="39" t="s">
         <v>54</v>
       </c>
@@ -1984,11 +1984,11 @@
         <v>5</v>
       </c>
       <c r="E8" s="25">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F8" s="35">
         <f>IF(E8/$D$8="- ",0,E8/$D$8)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G8" s="25">
         <v>5</v>
@@ -2062,11 +2062,11 @@
         <v>5</v>
       </c>
       <c r="E9" s="25">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F9" s="35">
         <f>IF(E9/$D$9="- ",0,E9/$D$9)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G9" s="25">
         <v>5</v>
@@ -2136,11 +2136,11 @@
         <v>5</v>
       </c>
       <c r="E10" s="25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" s="35">
         <f>IF(E10/$D$10="- ",0,E10/$D$10)</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G10" s="25">
         <v>5</v>
@@ -2210,11 +2210,11 @@
         <v>5</v>
       </c>
       <c r="E11" s="25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" s="35">
         <f>IF(E11/$D$11="- ",0,E11/$D$11)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G11" s="25">
         <v>5</v>
@@ -3454,31 +3454,24 @@
         <v>55</v>
       </c>
       <c r="D28" s="76"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="101"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="87"/>
       <c r="S28" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="A2:B2"/>
@@ -3492,6 +3485,13 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.1875" right="0.11811023622047245" top="0.43125000000000002" bottom="0.48749999999999999" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3544,10 +3544,10 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="89"/>
+      <c r="A2" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="91"/>
       <c r="C2" s="20" t="s">
         <v>24</v>
       </c>
@@ -3556,23 +3556,23 @@
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="99">
-        <v>1</v>
-      </c>
-      <c r="J2" s="99"/>
+      <c r="I2" s="101">
+        <v>1</v>
+      </c>
+      <c r="J2" s="101"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
-      <c r="O2" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="92" t="s">
+      <c r="O2" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="94"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="96"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
       <c r="V2" s="5" t="s">
@@ -3584,10 +3584,10 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="27.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="96"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="22" t="s">
         <v>5</v>
       </c>
@@ -3604,10 +3604,10 @@
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
-      <c r="Q3" s="97" t="s">
+      <c r="Q3" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="98"/>
+      <c r="R3" s="100"/>
       <c r="S3" s="37">
         <f>SUMPRODUCT(B6:B23,S6:S23)</f>
         <v>0.16881578947368422</v>
@@ -3635,34 +3635,34 @@
         <v>11</v>
       </c>
       <c r="D4" s="38"/>
-      <c r="E4" s="86">
+      <c r="E4" s="88">
         <v>44501</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="86">
+      <c r="F4" s="89"/>
+      <c r="G4" s="88">
         <v>44502</v>
       </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="86">
+      <c r="H4" s="89"/>
+      <c r="I4" s="88">
         <v>44503</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="86">
+      <c r="J4" s="89"/>
+      <c r="K4" s="88">
         <v>44504</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="86">
+      <c r="L4" s="89"/>
+      <c r="M4" s="88">
         <v>44505</v>
       </c>
-      <c r="N4" s="87"/>
-      <c r="O4" s="86">
+      <c r="N4" s="89"/>
+      <c r="O4" s="88">
         <v>44506</v>
       </c>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="86">
+      <c r="P4" s="89"/>
+      <c r="Q4" s="88">
         <v>44507</v>
       </c>
-      <c r="R4" s="87"/>
+      <c r="R4" s="89"/>
       <c r="S4" s="39" t="s">
         <v>54</v>
       </c>
@@ -5399,13 +5399,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="A2:B2"/>
@@ -5419,6 +5412,13 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.1875" right="0.11811023622047245" top="0.4" bottom="0.56874999999999998" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5471,10 +5471,10 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="89"/>
+      <c r="A2" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="91"/>
       <c r="C2" s="20" t="s">
         <v>25</v>
       </c>
@@ -5482,24 +5482,24 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
-      <c r="H2" s="99">
-        <v>1</v>
-      </c>
-      <c r="I2" s="99"/>
+      <c r="H2" s="101">
+        <v>1</v>
+      </c>
+      <c r="I2" s="101"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
-      <c r="O2" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="92" t="s">
+      <c r="O2" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="94"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="96"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
       <c r="V2" s="5" t="s">
@@ -5511,10 +5511,10 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="27.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="96"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="22" t="s">
         <v>5</v>
       </c>
@@ -5531,10 +5531,10 @@
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
-      <c r="Q3" s="97" t="s">
+      <c r="Q3" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="98"/>
+      <c r="R3" s="100"/>
       <c r="S3" s="37">
         <f>SUMPRODUCT(B6:B23,S6:S23)</f>
         <v>1</v>
@@ -5562,34 +5562,34 @@
         <v>11</v>
       </c>
       <c r="D4" s="38"/>
-      <c r="E4" s="86">
+      <c r="E4" s="88">
         <v>44501</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="86">
+      <c r="F4" s="89"/>
+      <c r="G4" s="88">
         <v>44502</v>
       </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="86">
+      <c r="H4" s="89"/>
+      <c r="I4" s="88">
         <v>44503</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="86">
+      <c r="J4" s="89"/>
+      <c r="K4" s="88">
         <v>44504</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="86">
+      <c r="L4" s="89"/>
+      <c r="M4" s="88">
         <v>44505</v>
       </c>
-      <c r="N4" s="87"/>
-      <c r="O4" s="86">
+      <c r="N4" s="89"/>
+      <c r="O4" s="88">
         <v>44506</v>
       </c>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="86">
+      <c r="P4" s="89"/>
+      <c r="Q4" s="88">
         <v>44507</v>
       </c>
-      <c r="R4" s="87"/>
+      <c r="R4" s="89"/>
       <c r="S4" s="39" t="s">
         <v>54</v>
       </c>
@@ -7308,24 +7308,31 @@
         <v>55</v>
       </c>
       <c r="D28" s="76"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="101"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="87"/>
       <c r="S28" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="A2:B2"/>
@@ -7339,13 +7346,6 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.1875" right="0.11811023622047245" top="0.47499999999999998" bottom="0.49375000000000002" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7398,10 +7398,10 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="89"/>
+      <c r="A2" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="91"/>
       <c r="C2" s="20" t="s">
         <v>26</v>
       </c>
@@ -7409,24 +7409,24 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
-      <c r="H2" s="99">
-        <v>1</v>
-      </c>
-      <c r="I2" s="99"/>
+      <c r="H2" s="101">
+        <v>1</v>
+      </c>
+      <c r="I2" s="101"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
-      <c r="O2" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="92" t="s">
+      <c r="O2" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="94"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="96"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
       <c r="V2" s="5" t="s">
@@ -7438,10 +7438,10 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="27.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="96"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="22" t="s">
         <v>5</v>
       </c>
@@ -7458,10 +7458,10 @@
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
-      <c r="Q3" s="97" t="s">
+      <c r="Q3" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="98"/>
+      <c r="R3" s="100"/>
       <c r="S3" s="37">
         <f>SUMPRODUCT(B6:B23,S6:S23)</f>
         <v>0.19571428571428573</v>
@@ -7489,34 +7489,34 @@
         <v>11</v>
       </c>
       <c r="D4" s="38"/>
-      <c r="E4" s="86">
+      <c r="E4" s="88">
         <v>44501</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="86">
+      <c r="F4" s="89"/>
+      <c r="G4" s="88">
         <v>44502</v>
       </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="86">
+      <c r="H4" s="89"/>
+      <c r="I4" s="88">
         <v>44503</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="86">
+      <c r="J4" s="89"/>
+      <c r="K4" s="88">
         <v>44504</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="86">
+      <c r="L4" s="89"/>
+      <c r="M4" s="88">
         <v>44505</v>
       </c>
-      <c r="N4" s="87"/>
-      <c r="O4" s="86">
+      <c r="N4" s="89"/>
+      <c r="O4" s="88">
         <v>44506</v>
       </c>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="86">
+      <c r="P4" s="89"/>
+      <c r="Q4" s="88">
         <v>44507</v>
       </c>
-      <c r="R4" s="87"/>
+      <c r="R4" s="89"/>
       <c r="S4" s="39" t="s">
         <v>54</v>
       </c>
@@ -9235,31 +9235,24 @@
         <v>55</v>
       </c>
       <c r="D28" s="76"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="101"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="87"/>
       <c r="S28" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="A2:B2"/>
@@ -9273,6 +9266,13 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.1875" right="0.11811023622047245" top="0.47499999999999998" bottom="0.55625000000000002" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9325,10 +9325,10 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="89"/>
+      <c r="A2" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="91"/>
       <c r="C2" s="20" t="s">
         <v>51</v>
       </c>
@@ -9336,24 +9336,24 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
-      <c r="H2" s="99">
-        <v>1</v>
-      </c>
-      <c r="I2" s="99"/>
+      <c r="H2" s="101">
+        <v>1</v>
+      </c>
+      <c r="I2" s="101"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
-      <c r="O2" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="92" t="s">
+      <c r="O2" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="94"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="96"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
       <c r="V2" s="5" t="s">
@@ -9365,10 +9365,10 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="27.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="96"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="22" t="s">
         <v>5</v>
       </c>
@@ -9385,10 +9385,10 @@
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
-      <c r="Q3" s="97" t="s">
+      <c r="Q3" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="98"/>
+      <c r="R3" s="100"/>
       <c r="S3" s="37">
         <f>SUMPRODUCT(B6:B23,S6:S23)</f>
         <v>0.03</v>
@@ -9416,34 +9416,34 @@
         <v>11</v>
       </c>
       <c r="D4" s="38"/>
-      <c r="E4" s="86">
+      <c r="E4" s="88">
         <v>44501</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="86">
+      <c r="F4" s="89"/>
+      <c r="G4" s="88">
         <v>44502</v>
       </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="86">
+      <c r="H4" s="89"/>
+      <c r="I4" s="88">
         <v>44503</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="86">
+      <c r="J4" s="89"/>
+      <c r="K4" s="88">
         <v>44504</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="86">
+      <c r="L4" s="89"/>
+      <c r="M4" s="88">
         <v>44505</v>
       </c>
-      <c r="N4" s="87"/>
-      <c r="O4" s="86">
+      <c r="N4" s="89"/>
+      <c r="O4" s="88">
         <v>44506</v>
       </c>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="86">
+      <c r="P4" s="89"/>
+      <c r="Q4" s="88">
         <v>44507</v>
       </c>
-      <c r="R4" s="87"/>
+      <c r="R4" s="89"/>
       <c r="S4" s="39" t="s">
         <v>54</v>
       </c>
@@ -10924,31 +10924,24 @@
         <v>55</v>
       </c>
       <c r="D28" s="76"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="101"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="87"/>
       <c r="S28" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="A2:B2"/>
@@ -10962,6 +10955,13 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.1875" right="0.11811023622047245" top="0.47499999999999998" bottom="0.59375" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11014,10 +11014,10 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="89"/>
+      <c r="A2" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="91"/>
       <c r="C2" s="20" t="s">
         <v>27</v>
       </c>
@@ -11025,24 +11025,24 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
-      <c r="H2" s="99">
-        <v>1</v>
-      </c>
-      <c r="I2" s="99"/>
+      <c r="H2" s="101">
+        <v>1</v>
+      </c>
+      <c r="I2" s="101"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
-      <c r="O2" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="92" t="s">
+      <c r="O2" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="94"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="96"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
       <c r="V2" s="5" t="s">
@@ -11054,10 +11054,10 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="27.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="96"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="22" t="s">
         <v>5</v>
       </c>
@@ -11074,10 +11074,10 @@
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
-      <c r="Q3" s="97" t="s">
+      <c r="Q3" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="98"/>
+      <c r="R3" s="100"/>
       <c r="S3" s="37">
         <f>SUMPRODUCT(B6:B23,S6:S23)</f>
         <v>0.17157894736842105</v>
@@ -11105,34 +11105,34 @@
         <v>11</v>
       </c>
       <c r="D4" s="38"/>
-      <c r="E4" s="86">
+      <c r="E4" s="88">
         <v>44501</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="86">
+      <c r="F4" s="89"/>
+      <c r="G4" s="88">
         <v>44502</v>
       </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="86">
+      <c r="H4" s="89"/>
+      <c r="I4" s="88">
         <v>44503</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="86">
+      <c r="J4" s="89"/>
+      <c r="K4" s="88">
         <v>44504</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="86">
+      <c r="L4" s="89"/>
+      <c r="M4" s="88">
         <v>44505</v>
       </c>
-      <c r="N4" s="87"/>
-      <c r="O4" s="86">
+      <c r="N4" s="89"/>
+      <c r="O4" s="88">
         <v>44506</v>
       </c>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="86">
+      <c r="P4" s="89"/>
+      <c r="Q4" s="88">
         <v>44507</v>
       </c>
-      <c r="R4" s="87"/>
+      <c r="R4" s="89"/>
       <c r="S4" s="39" t="s">
         <v>54</v>
       </c>
@@ -12647,31 +12647,24 @@
         <v>55</v>
       </c>
       <c r="D28" s="76"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="101"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="87"/>
       <c r="S28" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="A2:B2"/>
@@ -12685,6 +12678,13 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.1875" right="0.11811023622047245" top="0.47499999999999998" bottom="0.58750000000000002" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12737,10 +12737,10 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="89"/>
+      <c r="A2" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="91"/>
       <c r="C2" s="20" t="s">
         <v>52</v>
       </c>
@@ -12748,24 +12748,24 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
-      <c r="H2" s="99">
-        <v>1</v>
-      </c>
-      <c r="I2" s="99"/>
+      <c r="H2" s="101">
+        <v>1</v>
+      </c>
+      <c r="I2" s="101"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
-      <c r="O2" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="92" t="s">
+      <c r="O2" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="94"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="96"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
       <c r="V2" s="5" t="s">
@@ -12777,10 +12777,10 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="27.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="96"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="22" t="s">
         <v>5</v>
       </c>
@@ -12797,10 +12797,10 @@
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
-      <c r="Q3" s="97" t="s">
+      <c r="Q3" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="98"/>
+      <c r="R3" s="100"/>
       <c r="S3" s="37">
         <f>SUMPRODUCT(B6:B23,S6:S23)</f>
         <v>0.03</v>
@@ -12828,34 +12828,34 @@
         <v>11</v>
       </c>
       <c r="D4" s="38"/>
-      <c r="E4" s="86">
+      <c r="E4" s="88">
         <v>44501</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="86">
+      <c r="F4" s="89"/>
+      <c r="G4" s="88">
         <v>44502</v>
       </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="86">
+      <c r="H4" s="89"/>
+      <c r="I4" s="88">
         <v>44503</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="86">
+      <c r="J4" s="89"/>
+      <c r="K4" s="88">
         <v>44504</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="86">
+      <c r="L4" s="89"/>
+      <c r="M4" s="88">
         <v>44505</v>
       </c>
-      <c r="N4" s="87"/>
-      <c r="O4" s="86">
+      <c r="N4" s="89"/>
+      <c r="O4" s="88">
         <v>44506</v>
       </c>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="86">
+      <c r="P4" s="89"/>
+      <c r="Q4" s="88">
         <v>44507</v>
       </c>
-      <c r="R4" s="87"/>
+      <c r="R4" s="89"/>
       <c r="S4" s="39" t="s">
         <v>54</v>
       </c>
@@ -14546,31 +14546,24 @@
         <v>55</v>
       </c>
       <c r="D28" s="76"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="101"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="87"/>
       <c r="S28" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="A2:B2"/>
@@ -14584,6 +14577,13 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.1875" right="0.11811023622047245" top="0.47499999999999998" bottom="0.53749999999999998" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14636,10 +14636,10 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="89"/>
+      <c r="A2" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="91"/>
       <c r="C2" s="20" t="s">
         <v>28</v>
       </c>
@@ -14647,24 +14647,24 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
-      <c r="H2" s="99">
-        <v>1</v>
-      </c>
-      <c r="I2" s="99"/>
+      <c r="H2" s="101">
+        <v>1</v>
+      </c>
+      <c r="I2" s="101"/>
       <c r="J2" s="82"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
-      <c r="O2" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="92" t="s">
+      <c r="O2" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="S2" s="94"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="96"/>
       <c r="T2" s="2"/>
       <c r="U2" s="4"/>
       <c r="V2" s="5" t="s">
@@ -14676,10 +14676,10 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="27.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="96"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="22" t="s">
         <v>5</v>
       </c>
@@ -14696,10 +14696,10 @@
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
-      <c r="Q3" s="97" t="s">
+      <c r="Q3" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="98"/>
+      <c r="R3" s="100"/>
       <c r="S3" s="37">
         <f>SUMPRODUCT(B6:B23,S6:S23)</f>
         <v>0.10233590733590732</v>
@@ -14727,34 +14727,34 @@
         <v>11</v>
       </c>
       <c r="D4" s="38"/>
-      <c r="E4" s="86">
+      <c r="E4" s="88">
         <v>44501</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="86">
+      <c r="F4" s="89"/>
+      <c r="G4" s="88">
         <v>44502</v>
       </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="86">
+      <c r="H4" s="89"/>
+      <c r="I4" s="88">
         <v>44503</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="86">
+      <c r="J4" s="89"/>
+      <c r="K4" s="88">
         <v>44504</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="86">
+      <c r="L4" s="89"/>
+      <c r="M4" s="88">
         <v>44505</v>
       </c>
-      <c r="N4" s="87"/>
-      <c r="O4" s="86">
+      <c r="N4" s="89"/>
+      <c r="O4" s="88">
         <v>44506</v>
       </c>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="86">
+      <c r="P4" s="89"/>
+      <c r="Q4" s="88">
         <v>44507</v>
       </c>
-      <c r="R4" s="87"/>
+      <c r="R4" s="89"/>
       <c r="S4" s="39" t="s">
         <v>54</v>
       </c>
@@ -16473,32 +16473,25 @@
         <v>55</v>
       </c>
       <c r="D28" s="76"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="101"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="87"/>
       <c r="S28" s="51"/>
     </row>
-    <row r="29" spans="1:26" ht="11.65" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="1:26" ht="11.65" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="A2:B2"/>
@@ -16512,6 +16505,13 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.1875" right="0.11811023622047245" top="0.47499999999999998" bottom="0.58750000000000002" header="0.31496062992125984" footer="0.31496062992125984"/>
